--- a/assets/Questions.xlsx
+++ b/assets/Questions.xlsx
@@ -1,63 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\UdeA\Comunicaciones\C2\Preguntas\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884E3D22-0DD0-4175-AAA7-CFA109243C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>¿Cuál es la capital de Usa?</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>messi</t>
-  </si>
-  <si>
-    <t>cr7</t>
-  </si>
-  <si>
-    <t>mexico</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,41 +385,3300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col width="52.7109375" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>¿Cuál es la capital de Usa?</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Nueva York</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>GFDD</t>
+        </is>
+      </c>
+      <c r="H1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>¿En que año nació Alvaro Uribe?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 956</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 949 </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1 952</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1 966</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1 952</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>¿Cuál es el lago más profundo del mundo?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lago titicaca</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lago Woyth</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lago baikal</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lago victoria</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lago baikal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>¿De qué murió Arquimedes?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Se ahogó</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Intoxicación con Cantárida</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Una tortuga le cayó en la cabeza</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Un soldado lo atravezó con la espada</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Un soldado lo atravezó con la espada</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Capital de Brasil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Brasilia</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brasilia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>¿Cuál de estos animales no puede saltar?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Iguana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cocodrilo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Flamenco</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Elefante</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Elefante</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>¿En qué consiste el síndrome de Alejandría?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ojos color purpura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Coloración atipica del cabello en tono azul</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Desprendimiento de la lengua</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Coloración atipica de la piel a tonos amarillos</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ojos color purpura</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Vacío</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>¿En qué año llegó Cristóbal Colón a América?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1 492</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1 429</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1 502</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1 542</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1 492</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vacío</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>¿En qué país se originó el cóctel “mojito”?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Puerto Rico</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Estados Unidos</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vacío</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>¿Qué movimiento tiene el caballo en ajedrez?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>En diagonal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>En "L"</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Libre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Horizontal y vertical </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En "L"</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Vacío</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>¿Cuál es el país más grande del mundo?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>¿En qué país se encuentra el desierto de Atacama?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Marruecos</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>¿Quién fue el campeón del mundial 2014?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>¿En qué lugar del cuerpo se produce la insulina?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Páncreas</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Higado</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Glándula Tiroidea</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cerebro</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Páncreas</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>¿Quién es el autor de la obra la La Virgen de las rocas?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Leonard Von Doncell</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Leonardo Da Vinci</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Rembrand</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Gustav Pierk</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Leonardo Da Vinci</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>¿En qué país se encuentra el K2, la segunda montaña más alta del mundo?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bielorrusia</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Pakistán</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pakistán</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>¿En qué año cayó el muro de Berlín?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1 989</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1 981</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1 992</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1 986</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1 989</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>¿Qué planeta está más cerca del sol?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Venus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mercurio</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Marte</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Saturno</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mercurio</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>¿Cuántas válvulas tiene el corazón?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2 válvulas</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3 válvulas</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4 válvulas</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8 válvula</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4 válvulas</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>¿Cuántos elementos hay en la tabla periódica?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>118 elementos</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>149 elementos</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>97 elementos</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>121 elementos</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>118 elementos</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>¿Cuál es el municipio más pequeño de Colombia?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sabaneta</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Quirmacá</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Magangue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lórica</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sabaneta</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Si tienes acrofobia, ¿a qué le tienes miedo?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Miedo a los cadaveres</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Miedo a la oscuridad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Miedo a morir ahogado</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Miedo a las alturas</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Miedo a las alturas</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>¿Dónde se encuentra el hueso más pequeño del cuerpo humano?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Oidos</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Pies</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Columna</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cintura</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Oidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>¿Sabes cuántos corazones tiene un pulpo?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3 corazones</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1 corazón</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2 corazones</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No tienen corazón</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3 corazones</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>¿Quién fue el presidente de Colombia entre 2002 y 2006?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Álvaro Uribe</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Iván Duque</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Belisario Betancur</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Juan Manuel Santos</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Álvaro Uribe</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>¿En qué año fue fundada la UdeA?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1 908</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1 899</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1 803</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1 914</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1 803</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>¿Quién es el hermano de Thor según Marvel?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Lucifer</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Loki</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Zeus</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Poseidon</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Loki</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>¿Quién pintó la Capilla Sixtina?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Miguel Angel</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Picasso</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Rembrand</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Da Vinci</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Miguel Angel</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>¿Cuál es el metal más caro del mundo?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Oro</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Platino</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Plata</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Rodio</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Rodio</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>¿Cuál es el disco más vendido de la historia?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Saint trophies</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Pray for me</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>x100pre</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>¿Cuál es el idioma más antiguo de los que sobreviven en Europa?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Español</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Catalán</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>¿De qué país es originario el café?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Etiopía</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Marruecos</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Etiopía</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>¿Cuál es el mineral más duro del planeta?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Uranio</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Platino</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Rodio</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Diamante</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Diamante</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>¿Cuál fue la primera película de Disney?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Peter Pan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>La dama y el vagabundo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Blancanieves y los 7 enanos</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>101 dalmatas</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Blancanieves y los 7 enanos</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>¿Con cuántos países comparte Colombia fronteras terrestres?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8 paises</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5 paises</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4 paises</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6 paises</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5 paises</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>¿Cuál es la capital del Departamento de Amazonas?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leticia </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Vaupez</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Machado</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leticia </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>¿Cuál es la etnia indígena más numerosa de Colombia?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Embéra</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Wayuu</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Arahuaca</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sikuani</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Wayuu</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>¿Hasta que año Panamá formó parte de Colombia?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1 999</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1 814</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1 903</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1 912</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1 903</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>¿Cuál fue el primer ciclista colombiano en participar en el Giro de Italia?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rigoberto Urán</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Nairo Quintana</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Lucho Herrera</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Martín Rodriguez</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Martín Rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>¿Qué día se celebra el día de la independencia de Colombia?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>15 de mayo</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2 de abril</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 de julio </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31 de octubre</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20 de julio </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>¿De dónde provienen los Juegos Olímpicos?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Grecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>¿Cuál es la película más taquillera de la historia (contando la inflación)?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lo que el viento se llevo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Titanic</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>E.T.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Lo que el viento se llevo</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>¿Cuál fue la primera película del Universo Cinematográfico Marvel?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hulk</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Iron Man</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SuperMan</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SpiderMan</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Iron Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>¿Qué significa la palabra átomo?</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Pequeño</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Invisible</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Indivisible</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Fundamental</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Indivisible</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>¿Con qué letras se representa el oro en la tabla periódica?</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gl</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Au</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Au</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>¿Cómo se llama la ciencia que estudia el Universo?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Astronómia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Astrología</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Cosmología</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Biología</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Cosmología</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>¿Cómo se denomina al resultado de una división?</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Resultado</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cociente</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sustraendo</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Dividendo</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Cociente</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>¿Qué famoso transatlántico se hundió el 14 de abril de 1912?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Titanic</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>TimeWater</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Colorado White</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Navy 063</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Titanic</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>¿A qué tienen miedo quienes padecen coulrofobia?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>al sol</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Payasos</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Extranjeros</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Arañas</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Payasos</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>¿Quién pronunció la frase: “Pienso, luego existo”?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Socrates</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Platón</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Descartes</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Ninguno de los anteriores</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Descartes</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>¿Quién dijo la frase: “Ojo por ojo y el mundo acabará ciego”?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nelson Mandela</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Socrates</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Martin Lutero</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Gandhi</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Gandhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>¿A qué país pertenece Groenlandia?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>A ninguno</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Noruega</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Suecia</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Dinamarca</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>¿Cuál es el país más visitado del mundo?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>EEUU</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>¿De qué país se independizó Eslovenia?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>URSS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Yugoslavia</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>¿En qué país se encuentra el rascacielos más alto del mundo?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nueva York</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Canáda</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Japón</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Dubai</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>¿Dónde se inventó la pizza?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Milán</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>¿Cuál es el continente más extenso del planeta?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>América</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>¿Cuánto duró “La Guerra de los Cien Años”?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>100 años</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>99 años</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>116 años</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>16 días</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>116 años</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>¿En qué país nació Adolf Hitler?</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Polonia</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>¿Según la Biblia, ¿cuántos años vivió Matusalén?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>740 años</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>817 años</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>969 años</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>676 años</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>969 años</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>¿Cuál era el nombre de pila de Che Guevara?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Anselmo</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Gustavo</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Ernesto</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Ernesto</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>¿Cuántas veces ha estado el hombre en la Luna?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Dos veces</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Seis veces</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Una vez</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cuatro veces</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Seis veces</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>¿Qué animal causa más muertes humanas al año?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mosquito</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Hipopotamo</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>León</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Jaguar</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Mosquito</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>¿Qué país del mundo produce más vino?</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>¿Cuál es la moneda oficial de Japón?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Yen</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Pesos Japoneses</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Dólar</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Yen</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>¿Cuál es la ciudad más poblada del mundo?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tokio</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Nueva York</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Tokio</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>¿Cuál es el estado más grande Estados Unidos?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Alaska</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Nuevo México</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Alaska</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>¿Dónde está el monte Vesubio?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Venecia</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Napoles</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>¿Cuánto vale el número pi?</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3.416…</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3.716…</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.1416…</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3.3141…</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.1416…</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>¿Qué órgano del cuerpo consume más energía?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Pulmones</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Corazón</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Cerebro</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Higado</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Cerebro</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>¿Cuál es el libro sagrado del judaísmo?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>La biblia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>El corán</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>El judish</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>La torá</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>La torá</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>¿Cuál es la moneda oficial de México?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Peso mexicano</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sol</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Real</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Peso mexicano</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>¿En qué continente esta ubicado Marruecos?</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>America</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>¿Cuál de los siguientes idiomas no es considerado "lengua romantica"?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Alemán</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Fránces</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Portugués</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Alemán</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>¿Cuál es la capital de Canáda?</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Canáda</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Otawa</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Alaska</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Otawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>¿Cuál es la capital de Rusia?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>San Petersburgo</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Kazan</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Moscú</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Moscú</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>¿Cuál es la derivada de la velocidad?</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Aceleración</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Posición</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Potencia</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Fuerza</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Aceleración</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>¿Cuál de estos equipos de fútbol colombiano No pertenece a Antioquia?</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Jaguares</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Aguilas Doradas</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Jaguares</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>¿En qué año atletico nacional ganó su segunda libertadores?</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2 010</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2 011</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2 015</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2 016</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2 016</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>¿Cuántos departamentos tiene Colombia?</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2 8</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3 1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3 4</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3 2</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>¿Cuál es el animal que más muertes causa al año?</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Hipopotamo</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tiburón</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Mosquito</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Sanguijuela</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Mosquito</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>¿En cuál de estos equipos No jugó James Rodriguez?</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Monáco</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>¿Cuánto dura un partido de tenis?</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>60 minutos</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>90 minutos</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85 minutos</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Indefinido</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>¿Cuál es la moneda oficial en Reino Unido?</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Dólar</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Libra Esterlina</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Yen</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Libra Esterlina</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>¿Dónde nació el Papa Francisco?</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>¿En que año Colombia ganó su primera copa ámerica?</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2 020</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2 022</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2 001</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2 002</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2 001</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>¿En cuál de estos equipos jugó Cristiano Ronaldo?</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Sporting de Lisboa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Atletico de Madrid</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sporting de Lisboa</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>¿Cuál de estos colores no es un color primario?</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Amarillo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Azul</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Rojo</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>¿Cuál equipo ganó el mundial 2006?</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Francia</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Alemania</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Holanda</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Italia</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>¿De qué nacionalidad es el deportista Novak Djokovic?</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Inglés</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Francés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Serbio</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Ruso</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Serbio</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>¿Comó murió John Lennon?</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Se ahogó</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Se suicido</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Accidente Automovilistico</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Asesinado por un fan</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Asesinado por un fan</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>¿Cuál de los siguientes personajes nunca ha sido presidente electo de venezuela?</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Nicolás Maduro</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Hugo Chávez</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Juan Guaido</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Todos los anteriores han sido presidentes electos</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Juan Guaido</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>¿Dónde nació Salvador Dalí?</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Holanda</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Nueva Guinea</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>¿En que universidad se graduó el Expresidente Alvaro Uribe?</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MIT</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>UdeA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Univalle</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>UdeM</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>UdeA</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>¿Cuál de estas universidades colombianas no es pública?</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>EAFIT</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>UdeA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Unal</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Univalle</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>EAFIT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>¿Dónde nació Lionel Messi?</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Rusia</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Pakistán</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>¿Cuál es el idioma más hablado como segunda lengua?</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Inglés</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Francés</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Español</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Inglés</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">¿Cuál es el único presidente colombiano galardonado con el premio nobel de paz? </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Uribe</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Duque</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Pastrana</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>¿En qué continente esta ubicado Noruega?</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Asia</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Europa</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>¿Cuál es la capital de España?</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Bilbao</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Menorca</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
       </c>
     </row>
   </sheetData>
